--- a/biology/Médecine/André_Vacheron/André_Vacheron.xlsx
+++ b/biology/Médecine/André_Vacheron/André_Vacheron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Vacheron</t>
+          <t>André_Vacheron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Vacheron, né le 20 février 1933 à Paris, est un médecin cardiologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Vacheron</t>
+          <t>André_Vacheron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Vacheron est membre de l'Académie des sciences morales et politiques depuis 2009[1]. Il est Grand officier de la Légion d'honneur[2].
-Après des études à la Faculté de Médecine de Paris, où il présente une thèse de Doctorat en 1964, il devient médecin des Hôpitaux de Paris et agrégé de cardiologie en 1970. De 1981 à 1999, il dirige le service de cardiologie de l’hôpital Necker, succédant à Jean Di Matteo. Professeur titulaire de clinique cardiologique à la faculté de médecine de Paris depuis 1981, il est désormais professeur émérite à l’université René Descartes depuis 2002. Il est membre de l'Académie nationale de médecine ainsi que de l'Académie nationale de Pharmacie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Vacheron est membre de l'Académie des sciences morales et politiques depuis 2009. Il est Grand officier de la Légion d'honneur.
+Après des études à la Faculté de Médecine de Paris, où il présente une thèse de Doctorat en 1964, il devient médecin des Hôpitaux de Paris et agrégé de cardiologie en 1970. De 1981 à 1999, il dirige le service de cardiologie de l’hôpital Necker, succédant à Jean Di Matteo. Professeur titulaire de clinique cardiologique à la faculté de médecine de Paris depuis 1981, il est désormais professeur émérite à l’université René Descartes depuis 2002. Il est membre de l'Académie nationale de médecine ainsi que de l'Académie nationale de Pharmacie.
 A tant que président de l'Académie des Sciences Morales, il est président de l'institut pour 2021.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Vacheron</t>
+          <t>André_Vacheron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Grand officier de la Légion d'honneur
  Officier de l'ordre national du Mérite
